--- a/Desarrollo/SGR/Sprint 1/SGR-CP.xlsx
+++ b/Desarrollo/SGR/Sprint 1/SGR-CP.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhhEEaWXXMiM0ynbE7oSdbLDt+MqA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjB4g8i2+/i1tkEfj5jjgHqdxqGhw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -102,13 +102,31 @@
     <t>Sanchez / Analista</t>
   </si>
   <si>
+    <t>Historias de Usuario</t>
+  </si>
+  <si>
+    <t>Documento de Historias de Usuario</t>
+  </si>
+  <si>
+    <t>SGR-HU</t>
+  </si>
+  <si>
+    <t>Lista de Actividades</t>
+  </si>
+  <si>
+    <t>Documento de Lista de Actividades</t>
+  </si>
+  <si>
+    <t>SGR-LA</t>
+  </si>
+  <si>
     <t>Diseño y Prototipo de Base de Datos</t>
   </si>
   <si>
-    <t>Documento de diseño de base de datos y  4+1</t>
-  </si>
-  <si>
-    <t>SGR-PBD</t>
+    <t xml:space="preserve">Documento de Diseño de Base de Datos </t>
+  </si>
+  <si>
+    <t>SGR-DBD</t>
   </si>
   <si>
     <t>Romero - Sanchez / DBA - Analista</t>
@@ -132,7 +150,7 @@
     <t>Documento de especificacion del modelo Base de Datos</t>
   </si>
   <si>
-    <t>SGR-MBD</t>
+    <t>SGR-EBD</t>
   </si>
   <si>
     <t>Romero / DBA</t>
@@ -177,7 +195,7 @@
     <t>SGR-DV</t>
   </si>
   <si>
-    <t>Pajuelo - Espinoza / Desarrollador Frontend</t>
+    <t>Pajuelo / Desarrollador Frontend</t>
   </si>
   <si>
     <t>Desarrollo Backend</t>
@@ -258,7 +276,7 @@
     <t>SGR-RC</t>
   </si>
   <si>
-    <t>Pajuelo - Espinoza -Pecho / Desarrollador Backend Frontend</t>
+    <t>Pajuelo -Pecho / Desarrollador Backend Frontend</t>
   </si>
   <si>
     <t>Documentar Resultados</t>
@@ -297,7 +315,7 @@
     <t>SGR-MU</t>
   </si>
   <si>
-    <t>Vega Rupire - Pajuelo - Espinoza / Testing - Desarrollador Frontend</t>
+    <t>Vega Rupire - Pajuelo / Testing - Desarrollador Frontend</t>
   </si>
   <si>
     <t>Documento de Aceptacion</t>
@@ -326,7 +344,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -348,12 +366,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -365,6 +383,7 @@
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -406,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -430,25 +449,25 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -470,6 +489,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -690,7 +712,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.38"/>
+    <col customWidth="1" min="1" max="1" width="4.13"/>
     <col customWidth="1" min="2" max="2" width="69.63"/>
     <col customWidth="1" min="3" max="3" width="42.63"/>
     <col customWidth="1" min="4" max="4" width="13.25"/>
@@ -818,8 +840,8 @@
       <c r="G10" s="9">
         <v>44354.0</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="11">
         <v>1.0</v>
       </c>
@@ -843,193 +865,193 @@
       <c r="G11" s="9">
         <v>44361.0</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="12">
         <v>0.4</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="14">
+        <v>44361.0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>44368.0</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="9">
+      <c r="C13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="14">
         <v>44361.0</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G13" s="14">
         <v>44368.0</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="9">
-        <v>44361.0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>44368.0</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11">
-        <v>0.0</v>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="12">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="F14" s="14">
+        <v>44364.0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>44368.0</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="9">
+      <c r="D15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="14">
+        <v>44365.0</v>
+      </c>
+      <c r="G15" s="9">
         <v>44368.0</v>
       </c>
-      <c r="G14" s="9">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="9">
+        <v>44368.0</v>
+      </c>
+      <c r="G16" s="9">
         <v>44375.0</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="11">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="11">
         <v>0.0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="15" t="s">
+    <row r="17">
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9">
         <v>44375.0</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G17" s="9">
         <v>44349.0</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18">
         <v>44349.0</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G18" s="18">
         <v>44379.0</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="9">
         <v>44379.0</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G19" s="9">
         <v>44382.0</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="9">
-        <v>44382.0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>44389.0</v>
-      </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="9">
-        <v>44382.0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>44389.0</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
@@ -1038,23 +1060,23 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="E20" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F20" s="9">
+        <v>44382.0</v>
+      </c>
+      <c r="G20" s="9">
         <v>44389.0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>44396.0</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
@@ -1063,23 +1085,23 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="E21" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="F21" s="9">
+        <v>44382.0</v>
+      </c>
+      <c r="G21" s="9">
         <v>44389.0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>44396.0</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
@@ -1088,23 +1110,23 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="F22" s="9">
+        <v>44389.0</v>
+      </c>
+      <c r="G22" s="9">
         <v>44396.0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>44403.0</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
@@ -1113,23 +1135,23 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>68</v>
+      <c r="E23" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F23" s="9">
-        <v>44403.0</v>
+        <v>44389.0</v>
       </c>
       <c r="G23" s="9">
-        <v>44407.0</v>
+        <v>44396.0</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
@@ -1138,92 +1160,92 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="F24" s="9">
-        <v>44407.0</v>
+        <v>44396.0</v>
       </c>
       <c r="G24" s="9">
-        <v>44410.0</v>
+        <v>44403.0</v>
       </c>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
-      <c r="J24" s="11"/>
+      <c r="J24" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="B25" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18">
-        <v>44380.0</v>
-      </c>
-      <c r="G25" s="18">
+      <c r="B25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="9">
+        <v>44403.0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>44407.0</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9">
+        <v>44407.0</v>
+      </c>
+      <c r="G26" s="9">
         <v>44410.0</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="9">
-        <v>44410.0</v>
-      </c>
-      <c r="G26" s="9">
-        <v>44413.0</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
-      <c r="J26" s="11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="9">
-        <v>44413.0</v>
-      </c>
-      <c r="G27" s="9">
-        <v>44417.0</v>
-      </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18">
+        <v>44380.0</v>
+      </c>
+      <c r="G27" s="18">
+        <v>44410.0</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="B28" s="8" t="s">
@@ -1235,14 +1257,14 @@
       <c r="D28" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>80</v>
+      <c r="E28" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="F28" s="9">
-        <v>44417.0</v>
+        <v>44410.0</v>
       </c>
       <c r="G28" s="9">
-        <v>44424.0</v>
+        <v>44413.0</v>
       </c>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
@@ -1252,22 +1274,22 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="B29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="E29" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F29" s="9">
-        <v>44424.0</v>
+        <v>44413.0</v>
       </c>
       <c r="G29" s="9">
-        <v>44428.0</v>
+        <v>44417.0</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
@@ -1277,22 +1299,22 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="B30" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="D30" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="E30" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>80</v>
-      </c>
       <c r="F30" s="9">
-        <v>44428.0</v>
+        <v>44417.0</v>
       </c>
       <c r="G30" s="9">
-        <v>44435.0</v>
+        <v>44424.0</v>
       </c>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
@@ -1311,13 +1333,13 @@
         <v>89</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F31" s="9">
+        <v>44424.0</v>
+      </c>
+      <c r="G31" s="9">
         <v>44428.0</v>
-      </c>
-      <c r="G31" s="9">
-        <v>44435.0</v>
       </c>
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
@@ -1329,14 +1351,14 @@
       <c r="B32" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="19" t="s">
         <v>91</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>93</v>
+      <c r="E32" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="F32" s="9">
         <v>44428.0</v>
@@ -1352,22 +1374,22 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="B33" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="E33" s="8" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="F33" s="9">
+        <v>44428.0</v>
+      </c>
+      <c r="G33" s="9">
         <v>44435.0</v>
-      </c>
-      <c r="G33" s="9">
-        <v>44439.0</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
@@ -1376,47 +1398,95 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="B34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>99</v>
+      </c>
       <c r="F34" s="9">
+        <v>44428.0</v>
+      </c>
+      <c r="G34" s="9">
         <v>44435.0</v>
-      </c>
-      <c r="G34" s="9">
-        <v>44441.0</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
-      <c r="J34" s="11"/>
+      <c r="J34" s="11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="18">
+      <c r="B35" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="9">
+        <v>44435.0</v>
+      </c>
+      <c r="G35" s="14">
+        <v>44439.0</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="B36" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="14">
+        <v>44435.0</v>
+      </c>
+      <c r="G36" s="14">
+        <v>44441.0</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="B37" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="18">
         <v>44411.0</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G37" s="18">
         <v>44441.0</v>
       </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="17"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="17"/>
+    </row>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
@@ -2360,6 +2430,8 @@
     <row r="978" ht="15.75" customHeight="1"/>
     <row r="979" ht="15.75" customHeight="1"/>
     <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
